--- a/biology/Microbiologie/Nyctotherus/Nyctotherus.xlsx
+++ b/biology/Microbiologie/Nyctotherus/Nyctotherus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nyctotherus est un genre de ciliés de la famille des Nyctotheridae.
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom Nyctotherus, est dérivé du grec ancien νυξ / nyx, nuit, et ther, « chasser », littéralement « chasseur nocturne », sans doute en référence à sa présence en parasite dans les intestins animaux.
 </t>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre type Nyctotherus est un organisme nageant librement, ovale ou en forme de haricot, plus ou moins comprimé, le bord étant dorsal convexe, et le ventral généralement courbé vers l'intérieur. L'excavation du champ de péristome, commençant un peu en arrière de l'extrémité apicale, se poursuit en forme de fente sur la face ventrale jusqu'au centre du corps, et s'y développe en arrière et en dedans pour rencontrer le pharynx cilié bien développé. Le bord gauche du péristome ne porte que les cils adoraux (c'est-à-dire situés près de l'appareil buccal). L’ouverture anale est visible en permanence sous la forme d'une fissure en forme de fente, et continue avec un court passage rectal tubulaire. La vésicule contractile est généralement unique et en position subterminale. L’endoplaste plus ou moins ovale, est situé mésialement (sur la partie médiane) en avant de la fente pharyngée[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre type Nyctotherus est un organisme nageant librement, ovale ou en forme de haricot, plus ou moins comprimé, le bord étant dorsal convexe, et le ventral généralement courbé vers l'intérieur. L'excavation du champ de péristome, commençant un peu en arrière de l'extrémité apicale, se poursuit en forme de fente sur la face ventrale jusqu'au centre du corps, et s'y développe en arrière et en dedans pour rencontrer le pharynx cilié bien développé. Le bord gauche du péristome ne porte que les cils adoraux (c'est-à-dire situés près de l'appareil buccal). L’ouverture anale est visible en permanence sous la forme d'une fissure en forme de fente, et continue avec un court passage rectal tubulaire. La vésicule contractile est généralement unique et en position subterminale. L’endoplaste plus ou moins ovale, est situé mésialement (sur la partie médiane) en avant de la fente pharyngée.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces du genre Nyctotherus sont des parasites des cavités intestinales des amphibiens et des invertébrés[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces du genre Nyctotherus sont des parasites des cavités intestinales des amphibiens et des invertébrés.
 </t>
         </is>
       </c>
@@ -604,9 +622,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon Catalogue of Life                                   (19 juin 2017)[2] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (19 juin 2017) :
 Nyctotherus actiniarum
 Nyctotherus acuminatus
 Nyctotherus africanus Castellani, 1905
